--- a/ebiz-xjf-pom/setting/java讲义-6.xlsx
+++ b/ebiz-xjf-pom/setting/java讲义-6.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="7560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="7560" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="第17" sheetId="4" r:id="rId1"/>
     <sheet name="第18" sheetId="5" r:id="rId2"/>
     <sheet name="第18 (2)" sheetId="6" r:id="rId3"/>
+    <sheet name="第18 (3)" sheetId="7" r:id="rId4"/>
+    <sheet name="第18 (4)" sheetId="8" r:id="rId5"/>
+    <sheet name="第18 (5)" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
     <t>18 类的加载机制和反射</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -972,6 +975,1237 @@
         <a:xfrm>
           <a:off x="639536" y="5755821"/>
           <a:ext cx="7542857" cy="2923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>68037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>151451</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>109882</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="653142" y="8667751"/>
+          <a:ext cx="7580952" cy="2695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>219499</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>44572</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="816428" y="11117036"/>
+          <a:ext cx="7485714" cy="2657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>117428</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>78607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="13947321"/>
+          <a:ext cx="7628571" cy="2514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>113357</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>152215</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="653143" y="16464644"/>
+          <a:ext cx="7542857" cy="1485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>95666</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>85380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="625928" y="17961428"/>
+          <a:ext cx="7552381" cy="2752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>163284</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>208593</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>71392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="653141" y="20737285"/>
+          <a:ext cx="7638095" cy="5800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>163702</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>110084</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="693964" y="26547537"/>
+          <a:ext cx="7552381" cy="1076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>216762</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>130452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="680357" y="27649714"/>
+          <a:ext cx="7619048" cy="1409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>188155</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="394608" y="367392"/>
+          <a:ext cx="7876190" cy="3009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>239892</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="693964" y="3524250"/>
+          <a:ext cx="7628571" cy="3838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>178666</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>117666</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="680357" y="7415893"/>
+          <a:ext cx="7580952" cy="5723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>106595</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>159939</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="979714" y="13144499"/>
+          <a:ext cx="7209524" cy="4990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>58916</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>112214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="503464" y="18124714"/>
+          <a:ext cx="7638095" cy="5800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>4512</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>112499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="639536" y="23934965"/>
+          <a:ext cx="7447619" cy="3514284"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>214036</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>84178</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="394607" y="299357"/>
+          <a:ext cx="7657143" cy="1485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>204106</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>192273</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47322</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="449035" y="1796144"/>
+          <a:ext cx="7580952" cy="2428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>113357</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="653143" y="4612821"/>
+          <a:ext cx="7542857" cy="1476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>176894</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>155536</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>173916</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666751" y="6204857"/>
+          <a:ext cx="7571428" cy="2038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>199071</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="653143" y="8354786"/>
+          <a:ext cx="7628571" cy="2200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>24905</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>50107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="10627178"/>
+          <a:ext cx="7590476" cy="1914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>231321</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>190916</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>164346</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="721178" y="12545786"/>
+          <a:ext cx="7552381" cy="2409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>231321</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>190917</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>20286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="367393"/>
+          <a:ext cx="7552381" cy="1000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>30357</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="598714" y="1524000"/>
+          <a:ext cx="7514286" cy="3361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>63011</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>61096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612321" y="4912179"/>
+          <a:ext cx="7533333" cy="1095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>30357</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="598714" y="6000749"/>
+          <a:ext cx="7514286" cy="1780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>128309</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>174822</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="544285" y="7864929"/>
+          <a:ext cx="7666667" cy="5685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>128321</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>124905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="639536" y="13552715"/>
+          <a:ext cx="7571428" cy="2247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>207226</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>67749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="585107" y="15757071"/>
+          <a:ext cx="7704762" cy="2285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>140572</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>58237</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="680358" y="18151928"/>
+          <a:ext cx="7542857" cy="2180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>68453</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>120405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="598715" y="20288250"/>
+          <a:ext cx="7552381" cy="5590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>116059</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>2251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="503464" y="26044072"/>
+          <a:ext cx="7695238" cy="3771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>193643</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>62262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="517071" y="29881286"/>
+          <a:ext cx="7514286" cy="2647619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1309,8 +2543,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AW38" sqref="AW38"/>
+    <sheetView topLeftCell="A125" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AQ146" sqref="AQ146"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="3.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E104" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="C153" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E153"/>
+  <sheetViews>
+    <sheetView topLeftCell="A133" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO130" sqref="AO130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="3.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E104" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="C153" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E153"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BA66" sqref="BA66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="3.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E104" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="C153" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E153"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
